--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T07:45:49+00:00</t>
+    <t>2022-09-02T09:30:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T09:30:25+00:00</t>
+    <t>2022-09-02T09:35:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T09:35:05+00:00</t>
+    <t>2022-09-02T10:41:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T10:41:06+00:00</t>
+    <t>2022-09-02T11:26:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T11:26:25+00:00</t>
+    <t>2022-09-02T11:38:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T11:38:41+00:00</t>
+    <t>2022-09-02T11:58:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T11:58:56+00:00</t>
+    <t>2022-09-02T12:49:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T12:49:53+00:00</t>
+    <t>2022-09-02T13:37:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T13:37:55+00:00</t>
+    <t>2022-09-02T13:46:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T13:46:03+00:00</t>
+    <t>2022-09-02T14:13:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T14:13:59+00:00</t>
+    <t>2022-09-02T14:17:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T14:17:12+00:00</t>
+    <t>2022-09-02T14:29:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T14:29:53+00:00</t>
+    <t>2022-09-02T14:35:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T14:35:52+00:00</t>
+    <t>2022-09-02T15:10:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T15:10:38+00:00</t>
+    <t>2022-09-03T01:46:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-03T01:46:21+00:00</t>
+    <t>2022-09-03T13:39:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-03T13:39:51+00:00</t>
+    <t>2022-09-05T02:07:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-05T02:07:34+00:00</t>
+    <t>2022-09-05T03:06:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-05T03:06:13+00:00</t>
+    <t>2022-09-05T04:03:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-05T04:03:43+00:00</t>
+    <t>2022-09-05T05:18:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-05T05:18:44+00:00</t>
+    <t>2022-09-05T06:29:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-05T06:29:27+00:00</t>
+    <t>2022-09-05T10:47:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-05T10:47:02+00:00</t>
+    <t>2022-09-05T23:00:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-05T23:00:51+00:00</t>
+    <t>2022-09-06T08:38:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T08:38:56+00:00</t>
+    <t>2022-09-06T09:29:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T09:29:54+00:00</t>
+    <t>2022-09-06T10:17:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T10:17:19+00:00</t>
+    <t>2022-09-07T00:39:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T00:39:19+00:00</t>
+    <t>2022-09-07T05:54:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T05:54:57+00:00</t>
+    <t>2022-09-07T09:10:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T09:10:58+00:00</t>
+    <t>2022-09-08T21:26:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T21:26:37+00:00</t>
+    <t>2022-09-09T09:52:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-09T09:52:21+00:00</t>
+    <t>2022-09-09T10:24:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-09T10:24:51+00:00</t>
+    <t>2022-09-09T11:04:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-09T11:04:14+00:00</t>
+    <t>2022-09-09T11:59:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-09T11:59:54+00:00</t>
+    <t>2022-09-09T22:38:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-09T22:38:47+00:00</t>
+    <t>2022-09-11T10:13:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-11T10:13:05+00:00</t>
+    <t>2022-09-12T00:20:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-12T00:20:59+00:00</t>
+    <t>2022-09-12T01:27:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-12T01:27:47+00:00</t>
+    <t>2022-09-12T01:48:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-12T01:48:10+00:00</t>
+    <t>2022-09-12T06:11:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-12T06:11:30+00:00</t>
+    <t>2022-09-12T14:45:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-12T14:45:14+00:00</t>
+    <t>2022-09-12T16:50:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-12T16:50:28+00:00</t>
+    <t>2022-09-12T22:07:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-12T22:07:03+00:00</t>
+    <t>2022-09-12T23:10:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-12T23:10:46+00:00</t>
+    <t>2022-09-13T13:55:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-13T13:55:04+00:00</t>
+    <t>2022-09-14T04:12:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T04:12:14+00:00</t>
+    <t>2022-09-14T06:29:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T06:29:05+00:00</t>
+    <t>2022-09-14T13:27:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T13:27:16+00:00</t>
+    <t>2022-09-14T13:36:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T13:36:44+00:00</t>
+    <t>2022-09-15T06:46:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-15T06:46:51+00:00</t>
+    <t>2022-09-15T12:18:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-15T12:18:56+00:00</t>
+    <t>2022-09-15T23:26:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-15T23:26:28+00:00</t>
+    <t>2022-09-16T01:28:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T01:28:39+00:00</t>
+    <t>2022-09-16T02:31:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T02:31:03+00:00</t>
+    <t>2022-09-16T03:15:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T03:15:32+00:00</t>
+    <t>2022-09-16T03:41:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T03:41:47+00:00</t>
+    <t>2022-09-16T04:02:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T04:02:06+00:00</t>
+    <t>2022-09-16T04:42:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T04:42:59+00:00</t>
+    <t>2022-09-16T07:09:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T07:09:30+00:00</t>
+    <t>2022-09-16T07:54:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T07:54:42+00:00</t>
+    <t>2022-09-16T08:26:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T08:26:49+00:00</t>
+    <t>2022-09-16T09:34:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T09:34:57+00:00</t>
+    <t>2022-09-16T10:00:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T10:00:28+00:00</t>
+    <t>2022-09-16T10:16:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T10:16:44+00:00</t>
+    <t>2022-09-16T10:20:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T10:20:04+00:00</t>
+    <t>2022-09-16T10:34:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T10:34:10+00:00</t>
+    <t>2022-09-16T10:56:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T10:56:00+00:00</t>
+    <t>2022-09-16T13:17:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T13:17:21+00:00</t>
+    <t>2022-09-16T14:04:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T14:04:42+00:00</t>
+    <t>2022-09-16T14:54:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T14:54:21+00:00</t>
+    <t>2022-09-17T07:20:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-17T07:20:02+00:00</t>
+    <t>2022-09-17T07:33:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-17T07:33:19+00:00</t>
+    <t>2022-09-17T08:22:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-17T08:22:44+00:00</t>
+    <t>2022-09-17T08:55:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-17T08:55:39+00:00</t>
+    <t>2022-09-17T09:03:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-17T09:03:50+00:00</t>
+    <t>2022-09-17T13:53:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-17T13:53:57+00:00</t>
+    <t>2022-09-17T14:19:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-17T14:19:17+00:00</t>
+    <t>2022-09-17T23:11:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-17T23:11:52+00:00</t>
+    <t>2022-09-17T23:36:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-17T23:36:21+00:00</t>
+    <t>2022-09-17T23:49:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-17T23:49:46+00:00</t>
+    <t>2022-09-17T23:51:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-17T23:51:36+00:00</t>
+    <t>2022-09-18T01:43:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-18T01:43:09+00:00</t>
+    <t>2022-09-18T02:15:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-18T02:15:16+00:00</t>
+    <t>2022-09-18T06:24:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-18T06:24:36+00:00</t>
+    <t>2022-09-18T06:42:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-18T06:42:45+00:00</t>
+    <t>2022-09-18T16:20:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-18T16:20:57+00:00</t>
+    <t>2022-09-19T06:50:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-19T06:50:03+00:00</t>
+    <t>2022-09-19T07:12:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-19T07:12:17+00:00</t>
+    <t>2022-09-19T07:34:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-19T07:34:45+00:00</t>
+    <t>2022-09-26</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>JP MedicationAdministration Example Uncategorized Comment</t>
+    <t>JP Core MedicationAdministration Example Uncategorized Comment CodeSystem</t>
   </si>
   <si>
     <t>Status</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
   <si>
     <t>Property</t>
   </si>
@@ -54,6 +54,9 @@
     <t>Experimental</t>
   </si>
   <si>
+    <t>true</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
@@ -91,9 +94,6 @@
   </si>
   <si>
     <t>Case Sensitive</t>
-  </si>
-  <si>
-    <t>true</t>
   </si>
   <si>
     <t>Value Set (all codes)</t>
@@ -376,68 +376,70 @@
       <c r="A7" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" t="s" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
   <si>
     <t>Property</t>
   </si>
@@ -54,48 +54,54 @@
     <t>Experimental</t>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>2022-09-26</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI)</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>No display for ContactDetail</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>注射実施未分類コメントのコードシステム例</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>Copyright FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) 一般社団法人日本医療情報学会NeXEHRS課題研究会FHIR日本実装検討WG</t>
+  </si>
+  <si>
+    <t>Case Sensitive</t>
+  </si>
+  <si>
     <t>true</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>2022-09-26</t>
-  </si>
-  <si>
-    <t>Publisher</t>
-  </si>
-  <si>
-    <t>FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI)</t>
-  </si>
-  <si>
-    <t>Contact</t>
-  </si>
-  <si>
-    <t>No display for ContactDetail</t>
-  </si>
-  <si>
-    <t>Jurisdiction</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>注射実施未分類コメントのコードシステム例</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>Case Sensitive</t>
-  </si>
-  <si>
     <t>Value Set (all codes)</t>
   </si>
   <si>
@@ -111,7 +117,7 @@
     <t>Content</t>
   </si>
   <si>
-    <t>example</t>
+    <t>fragment</t>
   </si>
   <si>
     <t>Supplements</t>
@@ -431,58 +437,58 @@
         <v>25</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B22" s="2"/>
     </row>
@@ -501,111 +507,111 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D9" s="2"/>
     </row>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0a</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26</t>
+    <t>2022-10-24</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.1.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -308,10 +308,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -308,10 +308,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.1</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-24</t>
+    <t>2023-06-26</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2</t>
+    <t>1.1.2-dev</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2-dev</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26</t>
+    <t>2023-10-31</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) (http://jpfhir.jp, office@hlfhir.jp)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-example-uncategorized-comment-cs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2-dev</t>
+    <t>1.2.0-dev</t>
   </si>
   <si>
     <t>Name</t>
